--- a/medicine/Enfance/Paul_Bradley/Paul_Bradley.xlsx
+++ b/medicine/Enfance/Paul_Bradley/Paul_Bradley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Bradley est un conteur né en 1973 à Cowansville. Il a fait partie de la plus ancienne troupe de conteurs des Cantons-de-l'est, les Ceuzes-là. Il a également créé le duo de conteurs Les Prétendants. En 2013, il co-fonde le collectif La Quadrature, un organisme de création et de diffusion de contes contemporain.
 </t>
@@ -511,18 +523,20 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en 1973 à Cowansville, Paul Bradley est un peintre devenu conteur. « C’est pourquoi ses histoires se déploient souvent sous forme de tableaux[1]. » Il très engagé dans le renouveau du conte au Québec. Il « travaille depuis plus de quinze ans à la résonance des répertoires dans différents groupes de conteurs[2]. » Certains le nomment « Le conteur de meute » puisqu'il a toujours conté au sein de collectifs et de groupes[3]. « L’évolution au sein de nombreuses formations, la transparence du processus et la boucle autoréférentielle caractérisent son travail[4]. »
-En 1998, il se joint aux Ceuzes-là, la plus ancienne troupe de conteurs issus de l'extrême sud des Cantons-de-l'Est, et qui préfère vivre l'expérience du conte en bande[5].
-C'est en 2005, soit sept ans plus tard, qu'il quitte la formation pour former un nouveau le collectif nommé Les Pelleteux d'légendes. Ceux-ci se donnent en spectacle partout au Québec et recevront une réception positive. Ils puisent dans le répertoire traditionnel et dans leur imagination pour réinventer et contemporanéiser des contes. Ils iront même jusqu'à se rendre en Bretagne pour faire un spectacle de contes pour les personnes malentendantes[6],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en 1973 à Cowansville, Paul Bradley est un peintre devenu conteur. « C’est pourquoi ses histoires se déploient souvent sous forme de tableaux. » Il très engagé dans le renouveau du conte au Québec. Il « travaille depuis plus de quinze ans à la résonance des répertoires dans différents groupes de conteurs. » Certains le nomment « Le conteur de meute » puisqu'il a toujours conté au sein de collectifs et de groupes. « L’évolution au sein de nombreuses formations, la transparence du processus et la boucle autoréférentielle caractérisent son travail. »
+En 1998, il se joint aux Ceuzes-là, la plus ancienne troupe de conteurs issus de l'extrême sud des Cantons-de-l'Est, et qui préfère vivre l'expérience du conte en bande.
+C'est en 2005, soit sept ans plus tard, qu'il quitte la formation pour former un nouveau le collectif nommé Les Pelleteux d'légendes. Ceux-ci se donnent en spectacle partout au Québec et recevront une réception positive. Ils puisent dans le répertoire traditionnel et dans leur imagination pour réinventer et contemporanéiser des contes. Ils iront même jusqu'à se rendre en Bretagne pour faire un spectacle de contes pour les personnes malentendantes,.
 En 2010, il fonde « Les prétendants » un duo formé avec Sylvain Racine et qui a pour but de lier le moderne au traditionnel pour renouveler le répertoire local ainsi que pour rendre accessible le conte à tout un chacun.
-En 2013, accompagné de Nicolas Rochette, Céline Jantet et Kevin Gravier, il cofonde la Quadrature, « un organisme de création et de diffusion en conte contemporain[4] ».
-En 2018, aux côtés de Karine Casparian, Ariane Labonté, Jérôme Bérubé, Nicolas Rochette et Céline Jantet, il publie quelques contes dans l'ouvrage collectif Nouvelle vague : contes contemporains, publiés aux éditions Planète rebelle[7],[8]. Il participe comme conteur et directeur artistique à la série de balados Contes indociles[9] réalisé par La Quadrature. Il est également récipiendaire de la résidence d’écriture en conte de Saint-Élie-de-Caxton décerné par le Regroupement du conte au Québec[10].
-« Lors du Rendez-vous des Grandes Gueules en 2020, il présente une légende locale, d’abord en utilisant les mots du capitaine Aubert Michaud puis en la réinventant. L’histoire de cette maison hantée entre ainsi dans la mythologie affabulée de Paul Bradley, tout comme sa propre version de la légende de la pierre manquante de l’église de Trois-Pistoles[1]. »
-Il a également été commissaire de l'exposition sur Françoise Sullivan qui a eu lieu en 2017 au Musée d’art contemporain de Baie-Saint-Paul (MACBSP)[11],[12].
-En 2020, Paul Bradley a écrit un conte sur la ville de Waterloo[13]. Cette même année, il remporte le premier Concours virtuel de menterie et par la suite cofonde avec Steven Larivière-Beaudoin et Marc-André Fortin la Ligue Mondiale de la Menterie[14] dont il devient analyste sous le pseudonyme de Léopaul Carter[15].
-Allant du musée aux microbrasseries, il performé à plusieurs endroits et au sein de plusieurs organisations différentes. Seul, ou en duo avec Sylvain Racine, il propose des ateliers d'initiation au conte dans les écoles primaires et secondaires[3].
+En 2013, accompagné de Nicolas Rochette, Céline Jantet et Kevin Gravier, il cofonde la Quadrature, « un organisme de création et de diffusion en conte contemporain ».
+En 2018, aux côtés de Karine Casparian, Ariane Labonté, Jérôme Bérubé, Nicolas Rochette et Céline Jantet, il publie quelques contes dans l'ouvrage collectif Nouvelle vague : contes contemporains, publiés aux éditions Planète rebelle,. Il participe comme conteur et directeur artistique à la série de balados Contes indociles réalisé par La Quadrature. Il est également récipiendaire de la résidence d’écriture en conte de Saint-Élie-de-Caxton décerné par le Regroupement du conte au Québec.
+« Lors du Rendez-vous des Grandes Gueules en 2020, il présente une légende locale, d’abord en utilisant les mots du capitaine Aubert Michaud puis en la réinventant. L’histoire de cette maison hantée entre ainsi dans la mythologie affabulée de Paul Bradley, tout comme sa propre version de la légende de la pierre manquante de l’église de Trois-Pistoles. »
+Il a également été commissaire de l'exposition sur Françoise Sullivan qui a eu lieu en 2017 au Musée d’art contemporain de Baie-Saint-Paul (MACBSP),.
+En 2020, Paul Bradley a écrit un conte sur la ville de Waterloo. Cette même année, il remporte le premier Concours virtuel de menterie et par la suite cofonde avec Steven Larivière-Beaudoin et Marc-André Fortin la Ligue Mondiale de la Menterie dont il devient analyste sous le pseudonyme de Léopaul Carter.
+Allant du musée aux microbrasseries, il performé à plusieurs endroits et au sein de plusieurs organisations différentes. Seul, ou en duo avec Sylvain Racine, il propose des ateliers d'initiation au conte dans les écoles primaires et secondaires.
 </t>
         </is>
       </c>
@@ -553,13 +567,86 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrage collectif
-Nouvelle vague: contes contemporains, Montréal, Planète rebelle, coll. « Parole », 2018, 152 p.  (ISBN 9782924797143)
-Balados
-2019 : Gpeur.com : Conteur
-2020 : Lowbrow, Tatouage : Directeur artistique
-Groupes et collectifs
-1994, Maëlstrom, musique
+          <t>Ouvrage collectif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nouvelle vague: contes contemporains, Montréal, Planète rebelle, coll. « Parole », 2018, 152 p.  (ISBN 9782924797143)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paul_Bradley</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Bradley</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Balados</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2019 : Gpeur.com : Conteur
+2020 : Lowbrow, Tatouage : Directeur artistique</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paul_Bradley</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Bradley</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Groupes et collectifs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1994, Maëlstrom, musique
 1996, Klon, musique
 1998, Les Ceuzes-Là, conte
 2006, Les Loups-Garous, conte
@@ -569,9 +656,43 @@
 2015, Épiq Fail, conte
 2018, Nouvelle vague, conte
 2018, Assemblage, conte
-2019, Primaires, les couleurs secondaires, poésie contées
-Spectacles de contes
-Contes d’excès et autres grassouilleteries, 2004, Les Ceuzes-là
+2019, Primaires, les couleurs secondaires, poésie contées</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paul_Bradley</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Bradley</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spectacles de contes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Contes d’excès et autres grassouilleteries, 2004, Les Ceuzes-là
 La vérité et autres certitudes, 2008, Les Ceuzes-là
 Le roi conte ses chances, 2009, Solo
 Un caprice de princesses et autres histoires rare, 2010, Les Prétendants
@@ -582,33 +703,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Paul_Bradley</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Paul_Bradley</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2018 : Récipiendaire de la résidence d'écriture en conte de Saint-Élie-de-Caxton décerné par le Regroupement du conte au Québec[10].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2018 : Récipiendaire de la résidence d'écriture en conte de Saint-Élie-de-Caxton décerné par le Regroupement du conte au Québec.
 2020 : Il remporte le premier Concours virtuel de menterie.</t>
         </is>
       </c>
